--- a/Data Youtube Channels - youtube-channels.xlsx
+++ b/Data Youtube Channels - youtube-channels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrien.g\Documents\DATABOOTCAMP\DATABOOTCAMP_ADRIEN.GAMBERT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4BDB94-062B-4FED-8988-F89FA9644EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726A91C-9AB2-4903-942C-DB840C584B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{DC52CA93-A53D-4B85-819D-2BCDEBE7805B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{DC52CA93-A53D-4B85-819D-2BCDEBE7805B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="4" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1152,8 +1152,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1639,7 +1639,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1659,16 +1659,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
@@ -1719,16 +1718,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1761,135 +1762,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -10419,6 +10298,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1166249503"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -21561,7 +21441,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15C2E892-51FA-4CDC-BD8D-8E1732A8DF86}" name="Tableau croisé dynamique1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15C2E892-51FA-4CDC-BD8D-8E1732A8DF86}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -21648,7 +21528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99B69758-BB2D-4108-8BED-B45289882404}" name="Tableau croisé dynamique11" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="genre">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99B69758-BB2D-4108-8BED-B45289882404}" name="Tableau croisé dynamique11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="genre">
   <location ref="A25:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -21735,7 +21615,7 @@
     <dataField name="nombre abonnés moyen par vidéo" fld="10" subtotal="average" baseField="6" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21744,7 +21624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21800,7 +21680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D7CA29F-AA9C-4B4D-A095-0478F9F2A0F6}" name="Tableau croisé dynamique7" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Année">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D7CA29F-AA9C-4B4D-A095-0478F9F2A0F6}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Année">
   <location ref="G1:J19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -22019,7 +21899,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{155A6489-A321-454F-B087-44E89C89A939}" name="Tableau croisé dynamique6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{155A6489-A321-454F-B087-44E89C89A939}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="">
   <location ref="A3:E15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -22114,7 +21994,7 @@
     <dataField name="Nombre de genre" fld="0" subtotal="count" baseField="6" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -22124,7 +22004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -22171,7 +22051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9A0B666-17E4-4BE7-BB19-29BB388A22BA}" name="Tableau croisé dynamique2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9A0B666-17E4-4BE7-BB19-29BB388A22BA}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A2:C113" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -22228,8 +22108,8 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="7"/>
@@ -22632,13 +22512,13 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E427D530-2A83-4E39-886A-49C658D03ECE}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{039F99EF-4601-4D16-A6BF-9034B31ABCFA}" uniqueName="2" name="Rank" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D4EF6E61-95FF-4EDD-8BB4-A00EBEE41861}" uniqueName="3" name="Channel_Name" queryTableFieldId="3" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D4EF6E61-95FF-4EDD-8BB4-A00EBEE41861}" uniqueName="3" name="Channel_Name" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{DF7836CC-6351-4233-B14A-1717C9877CD5}" uniqueName="4" name="Subscriber_Count" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{654E2F26-AE1C-433E-89B1-88F45EA687B2}" uniqueName="5" name="Video_Views" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{AA503458-0B21-43EE-868F-0E509EEEF81A}" uniqueName="6" name="Video_Count" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{F1A7612E-B768-496E-B277-7B586E03630E}" uniqueName="7" name="Genre" queryTableFieldId="7" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{F1A7612E-B768-496E-B277-7B586E03630E}" uniqueName="7" name="Genre" queryTableFieldId="7" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{6D9AEFC4-8AAA-4722-9B20-EBA236501019}" uniqueName="8" name="Channel_Started" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6050C5FA-90EF-4B5F-B71B-27E3F7A52D63}" uniqueName="9" name="Ancienneté" queryTableFieldId="9" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{6050C5FA-90EF-4B5F-B71B-27E3F7A52D63}" uniqueName="9" name="Ancienneté" queryTableFieldId="9" dataDxfId="10">
       <calculatedColumnFormula>2025 - H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22651,9 +22531,9 @@
   <autoFilter ref="A1:D5" xr:uid="{A2584A6F-8168-481B-9C99-E9A2601DCB69}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B441029F-30E8-4DB1-BB0C-B4F0C48A0CC4}" name="Colonne1"/>
-    <tableColumn id="2" xr3:uid="{4EE6322C-A380-4DEC-8669-35E2BD669607}" name="Moyenne" dataDxfId="19" dataCellStyle="Pourcentage"/>
-    <tableColumn id="3" xr3:uid="{1508E75E-4BED-43A1-A2BF-C17A4FD4EDB8}" name="Min" dataDxfId="18" dataCellStyle="Milliers"/>
-    <tableColumn id="4" xr3:uid="{5B44CB67-B538-475F-B682-C79AC2A16C56}" name="Max" dataDxfId="17" dataCellStyle="Milliers"/>
+    <tableColumn id="2" xr3:uid="{4EE6322C-A380-4DEC-8669-35E2BD669607}" name="Moyenne" dataDxfId="9" dataCellStyle="Pourcentage"/>
+    <tableColumn id="3" xr3:uid="{1508E75E-4BED-43A1-A2BF-C17A4FD4EDB8}" name="Min" dataDxfId="8" dataCellStyle="Milliers"/>
+    <tableColumn id="4" xr3:uid="{5B44CB67-B538-475F-B682-C79AC2A16C56}" name="Max" dataDxfId="7" dataCellStyle="Milliers"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23061,7 +22941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE00BC8-9C24-4595-AEFA-ED8027281C00}">
   <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="41" zoomScaleNormal="42" workbookViewId="0">
+    <sheetView zoomScale="41" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
@@ -30815,7 +30695,7 @@
         <v>2016</v>
       </c>
       <c r="I258">
-        <f t="shared" ref="I258:I321" si="4">2025 - H258</f>
+        <f t="shared" ref="I258:I297" si="4">2025 - H258</f>
         <v>9</v>
       </c>
     </row>
@@ -32003,16 +31883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51BA9C-24D6-4D53-A517-440F6B5295E4}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="38.77734375" customWidth="1"/>
     <col min="8" max="8" width="27.88671875" customWidth="1"/>
@@ -32022,13 +31902,13 @@
       <c r="A1" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>319</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -32045,15 +31925,15 @@
       <c r="A2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <f>AVERAGE('[1]Data Youtube Channels - you'!D2:D297)</f>
         <v>31591554.054054055</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <f>MIN('[1]Data Youtube Channels - you'!D2:D297)</f>
         <v>3720000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f>MAX('[1]Data Youtube Channels - you'!D2:D297)</f>
         <v>237000000</v>
       </c>
@@ -32072,15 +31952,15 @@
       <c r="A3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <f>AVERAGE('[1]Data Youtube Channels - you'!E2:E297)</f>
         <v>21996276137.192566</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f>MIN('[1]Data Youtube Channels - you'!E2:E297)</f>
         <v>11387663843</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>MAX('[1]Data Youtube Channels - you'!E2:E297)</f>
         <v>216495600668</v>
       </c>
@@ -32099,15 +31979,15 @@
       <c r="A4" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <f>AVERAGE('[1]Data Youtube Channels - you'!F2:F297)</f>
         <v>19174.33108108108</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>MIN('[1]Data Youtube Channels - you'!F2:F297)</f>
         <v>15</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>MAX('[1]Data Youtube Channels - you'!F2:F297)</f>
         <v>345736</v>
       </c>
@@ -32119,15 +31999,15 @@
       <c r="A5" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>ROUND(AVERAGE('[1]Data Youtube Channels - you'!H2:H297),1)</f>
         <v>2011.4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f>MIN('[1]Data Youtube Channels - you'!H2:H297)</f>
         <v>2005</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f>MAX('[1]Data Youtube Channels - you'!H2:H297)</f>
         <v>2021</v>
       </c>
@@ -32193,13 +32073,13 @@
       <c r="G2" s="2">
         <v>2005</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2">
         <v>19770203654.5</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2">
         <v>31140000</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2">
         <v>10</v>
       </c>
     </row>
@@ -32222,13 +32102,13 @@
       <c r="G3" s="2">
         <v>2006</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3">
         <v>35210444672.4375</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>43832679.25</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3">
         <v>32</v>
       </c>
     </row>
@@ -32245,19 +32125,19 @@
       <c r="D4" s="7">
         <v>2157.3636363636365</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>11</v>
       </c>
       <c r="G4" s="2">
         <v>2007</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4">
         <v>25127288838.42857</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>36442857.142857142</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4">
         <v>21</v>
       </c>
     </row>
@@ -32274,19 +32154,19 @@
       <c r="D5" s="7">
         <v>1026.8571428571429</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>14</v>
       </c>
       <c r="G5" s="2">
         <v>2008</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5">
         <v>22987691647.888889</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>32216666.666666668</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5">
         <v>18</v>
       </c>
     </row>
@@ -32303,19 +32183,19 @@
       <c r="D6" s="7">
         <v>31203.958333333332</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>72</v>
       </c>
       <c r="G6" s="2">
         <v>2009</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>17300574308.266666</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>23513678.166666668</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6">
         <v>30</v>
       </c>
     </row>
@@ -32332,19 +32212,19 @@
       <c r="D7" s="7">
         <v>17231.333333333332</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>2010</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>18519514240.625</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>29843750</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7">
         <v>16</v>
       </c>
     </row>
@@ -32361,19 +32241,19 @@
       <c r="D8" s="7">
         <v>12383.333333333334</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>18</v>
       </c>
       <c r="G8" s="2">
         <v>2011</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <v>21754436732.826088</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <v>27998260.869565219</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8">
         <v>23</v>
       </c>
     </row>
@@ -32390,19 +32270,19 @@
       <c r="D9" s="7">
         <v>6022</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>2012</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9">
         <v>17469337910.548386</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9">
         <v>31534516.129032258</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9">
         <v>31</v>
       </c>
     </row>
@@ -32419,19 +32299,19 @@
       <c r="D10" s="7">
         <v>3561.7256637168143</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>113</v>
       </c>
       <c r="G10" s="2">
         <v>2013</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10">
         <v>17793870672.304348</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10">
         <v>26303043.478260871</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10">
         <v>23</v>
       </c>
     </row>
@@ -32448,19 +32328,19 @@
       <c r="D11" s="7">
         <v>148948.27272727274</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>11</v>
       </c>
       <c r="G11" s="2">
         <v>2014</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11">
         <v>21352356548.032257</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11">
         <v>31553225.806451611</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11">
         <v>31</v>
       </c>
     </row>
@@ -32477,19 +32357,19 @@
       <c r="D12" s="7">
         <v>21887.962962962964</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>27</v>
       </c>
       <c r="G12" s="2">
         <v>2015</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12">
         <v>22082919014.470589</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>32341176.470588237</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12">
         <v>17</v>
       </c>
     </row>
@@ -32506,19 +32386,19 @@
       <c r="D13" s="7">
         <v>672</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>2016</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <v>25261442315.444443</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>37135555.555555552</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13">
         <v>18</v>
       </c>
     </row>
@@ -32535,19 +32415,19 @@
       <c r="D14" s="7">
         <v>28945.75</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>4</v>
       </c>
       <c r="G14" s="2">
         <v>2017</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14">
         <v>18846522793</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14">
         <v>38350000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14">
         <v>4</v>
       </c>
     </row>
@@ -32564,19 +32444,19 @@
       <c r="D15" s="7">
         <v>19174.33108108108</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>296</v>
       </c>
       <c r="G15" s="2">
         <v>2018</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>23957877925.285713</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15">
         <v>33542857.142857142</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15">
         <v>7</v>
       </c>
     </row>
@@ -32584,13 +32464,13 @@
       <c r="G16" s="2">
         <v>2019</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16">
         <v>26198962430</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16">
         <v>18300000</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16">
         <v>1</v>
       </c>
     </row>
@@ -32598,13 +32478,13 @@
       <c r="G17" s="2">
         <v>2020</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17">
         <v>15159798504.5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17">
         <v>18350000</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17">
         <v>6</v>
       </c>
     </row>
@@ -32612,13 +32492,13 @@
       <c r="G18" s="2">
         <v>2021</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18">
         <v>15779040576.875</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18">
         <v>15337500</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18">
         <v>8</v>
       </c>
     </row>
@@ -32626,13 +32506,13 @@
       <c r="G19" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19">
         <v>21996276137.192566</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>31433601.625</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19">
         <v>296</v>
       </c>
     </row>
@@ -32869,13 +32749,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="H2:H18">
-    <cfRule type="top10" dxfId="5" priority="11" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="6" priority="11" percent="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="I2:I18">
-    <cfRule type="top10" dxfId="4" priority="10" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="5" priority="10" percent="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="J2:J18">
-    <cfRule type="top10" dxfId="3" priority="9" percent="1" rank="20"/>
+    <cfRule type="top10" dxfId="4" priority="9" percent="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
     <cfRule type="dataBar" priority="8">
@@ -33203,7 +33083,7 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>122800000</v>
       </c>
     </row>
@@ -33211,7 +33091,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>73300000</v>
       </c>
     </row>
@@ -33219,7 +33099,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>40800000</v>
       </c>
     </row>
@@ -33227,7 +33107,7 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>39800000</v>
       </c>
     </row>
@@ -33235,7 +33115,7 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>19900000</v>
       </c>
     </row>
@@ -33243,7 +33123,7 @@
       <c r="B8" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>14800000</v>
       </c>
     </row>
@@ -33251,7 +33131,7 @@
       <c r="A9" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>311400000</v>
       </c>
     </row>
@@ -33262,7 +33142,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>595600000</v>
       </c>
     </row>
@@ -33270,7 +33150,7 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>295500000</v>
       </c>
     </row>
@@ -33278,7 +33158,7 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>247100000</v>
       </c>
     </row>
@@ -33286,7 +33166,7 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>191800000</v>
       </c>
     </row>
@@ -33294,7 +33174,7 @@
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>30700000</v>
       </c>
     </row>
@@ -33302,7 +33182,7 @@
       <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>24745736</v>
       </c>
     </row>
@@ -33310,7 +33190,7 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>17200000</v>
       </c>
     </row>
@@ -33318,7 +33198,7 @@
       <c r="A17" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>1402645736</v>
       </c>
     </row>
@@ -33329,7 +33209,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>367500000</v>
       </c>
     </row>
@@ -33337,7 +33217,7 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>155800000</v>
       </c>
     </row>
@@ -33345,7 +33225,7 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>93500000</v>
       </c>
     </row>
@@ -33353,7 +33233,7 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21">
         <v>77500000</v>
       </c>
     </row>
@@ -33361,7 +33241,7 @@
       <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>42000000</v>
       </c>
     </row>
@@ -33369,7 +33249,7 @@
       <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>29000000</v>
       </c>
     </row>
@@ -33377,7 +33257,7 @@
       <c r="A24" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>765300000</v>
       </c>
     </row>
@@ -33388,7 +33268,7 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>265200000</v>
       </c>
     </row>
@@ -33396,7 +33276,7 @@
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26">
         <v>92700000</v>
       </c>
     </row>
@@ -33404,7 +33284,7 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27">
         <v>90900000</v>
       </c>
     </row>
@@ -33412,7 +33292,7 @@
       <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <v>65400000</v>
       </c>
     </row>
@@ -33420,7 +33300,7 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>33600000</v>
       </c>
     </row>
@@ -33428,7 +33308,7 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30">
         <v>32100000</v>
       </c>
     </row>
@@ -33436,7 +33316,7 @@
       <c r="A31" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31">
         <v>579900000</v>
       </c>
     </row>
@@ -33447,7 +33327,7 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32">
         <v>476460345</v>
       </c>
     </row>
@@ -33455,7 +33335,7 @@
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33">
         <v>68420000</v>
       </c>
     </row>
@@ -33463,7 +33343,7 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34">
         <v>55700000</v>
       </c>
     </row>
@@ -33471,7 +33351,7 @@
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35">
         <v>53500000</v>
       </c>
     </row>
@@ -33479,7 +33359,7 @@
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36">
         <v>29530000</v>
       </c>
     </row>
@@ -33487,7 +33367,7 @@
       <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37">
         <v>21800000</v>
       </c>
     </row>
@@ -33495,7 +33375,7 @@
       <c r="A38" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38">
         <v>705410345</v>
       </c>
     </row>
@@ -33506,7 +33386,7 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39">
         <v>253400000</v>
       </c>
     </row>
@@ -33514,7 +33394,7 @@
       <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40">
         <v>111000000</v>
       </c>
     </row>
@@ -33522,7 +33402,7 @@
       <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41">
         <v>45800000</v>
       </c>
     </row>
@@ -33530,7 +33410,7 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42">
         <v>29400000</v>
       </c>
     </row>
@@ -33538,7 +33418,7 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43">
         <v>22300000</v>
       </c>
     </row>
@@ -33546,7 +33426,7 @@
       <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44">
         <v>15600000</v>
       </c>
     </row>
@@ -33554,7 +33434,7 @@
       <c r="A45" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45">
         <v>477500000</v>
       </c>
     </row>
@@ -33565,7 +33445,7 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46">
         <v>374420000</v>
       </c>
     </row>
@@ -33573,7 +33453,7 @@
       <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47">
         <v>106500000</v>
       </c>
     </row>
@@ -33581,7 +33461,7 @@
       <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48">
         <v>57300000</v>
       </c>
     </row>
@@ -33589,7 +33469,7 @@
       <c r="B49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49">
         <v>39800000</v>
       </c>
     </row>
@@ -33597,7 +33477,7 @@
       <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50">
         <v>35640000</v>
       </c>
     </row>
@@ -33605,7 +33485,7 @@
       <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51">
         <v>30300000</v>
       </c>
     </row>
@@ -33613,7 +33493,7 @@
       <c r="A52" t="s">
         <v>352</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52">
         <v>643960000</v>
       </c>
     </row>
@@ -33624,7 +33504,7 @@
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53">
         <v>428670000</v>
       </c>
     </row>
@@ -33632,7 +33512,7 @@
       <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54">
         <v>248400000</v>
       </c>
     </row>
@@ -33640,7 +33520,7 @@
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55">
         <v>127900000</v>
       </c>
     </row>
@@ -33648,7 +33528,7 @@
       <c r="B56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56">
         <v>125600000</v>
       </c>
     </row>
@@ -33656,7 +33536,7 @@
       <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57">
         <v>35500000</v>
       </c>
     </row>
@@ -33664,7 +33544,7 @@
       <c r="B58" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58">
         <v>11500000</v>
       </c>
     </row>
@@ -33672,7 +33552,7 @@
       <c r="A59" t="s">
         <v>353</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59">
         <v>977570000</v>
       </c>
     </row>
@@ -33683,7 +33563,7 @@
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60">
         <v>205800000</v>
       </c>
     </row>
@@ -33691,7 +33571,7 @@
       <c r="B61" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61">
         <v>110640000</v>
       </c>
     </row>
@@ -33699,7 +33579,7 @@
       <c r="B62" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62">
         <v>102400000</v>
       </c>
     </row>
@@ -33707,7 +33587,7 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63">
         <v>86200000</v>
       </c>
     </row>
@@ -33715,7 +33595,7 @@
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64">
         <v>61900000</v>
       </c>
     </row>
@@ -33723,7 +33603,7 @@
       <c r="B65" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65">
         <v>20800000</v>
       </c>
     </row>
@@ -33731,7 +33611,7 @@
       <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66">
         <v>10400000</v>
       </c>
     </row>
@@ -33739,7 +33619,7 @@
       <c r="B67" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67">
         <v>6830000</v>
       </c>
     </row>
@@ -33747,7 +33627,7 @@
       <c r="A68" t="s">
         <v>354</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68">
         <v>604970000</v>
       </c>
     </row>
@@ -33758,7 +33638,7 @@
       <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69">
         <v>367400000</v>
       </c>
     </row>
@@ -33766,7 +33646,7 @@
       <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70">
         <v>204100000</v>
       </c>
     </row>
@@ -33774,7 +33654,7 @@
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71">
         <v>121300000</v>
       </c>
     </row>
@@ -33782,7 +33662,7 @@
       <c r="B72" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72">
         <v>108800000</v>
       </c>
     </row>
@@ -33790,7 +33670,7 @@
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73">
         <v>94850000</v>
       </c>
     </row>
@@ -33798,7 +33678,7 @@
       <c r="B74" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74">
         <v>67700000</v>
       </c>
     </row>
@@ -33806,7 +33686,7 @@
       <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75">
         <v>14000000</v>
       </c>
     </row>
@@ -33814,7 +33694,7 @@
       <c r="A76" t="s">
         <v>355</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76">
         <v>978150000</v>
       </c>
     </row>
@@ -33825,7 +33705,7 @@
       <c r="B77" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77">
         <v>221300000</v>
       </c>
     </row>
@@ -33833,7 +33713,7 @@
       <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78">
         <v>195000000</v>
       </c>
     </row>
@@ -33841,7 +33721,7 @@
       <c r="B79" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79">
         <v>36900000</v>
       </c>
     </row>
@@ -33849,7 +33729,7 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80">
         <v>36700000</v>
       </c>
     </row>
@@ -33857,7 +33737,7 @@
       <c r="B81" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81">
         <v>30300000</v>
       </c>
     </row>
@@ -33865,7 +33745,7 @@
       <c r="B82" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82">
         <v>29600000</v>
       </c>
     </row>
@@ -33873,7 +33753,7 @@
       <c r="A83" t="s">
         <v>356</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83">
         <v>549800000</v>
       </c>
     </row>
@@ -33884,7 +33764,7 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84">
         <v>222800000</v>
       </c>
     </row>
@@ -33892,7 +33772,7 @@
       <c r="B85" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85">
         <v>130420000</v>
       </c>
     </row>
@@ -33900,7 +33780,7 @@
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86">
         <v>97220000</v>
       </c>
     </row>
@@ -33908,7 +33788,7 @@
       <c r="B87" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87">
         <v>78900000</v>
       </c>
     </row>
@@ -33916,7 +33796,7 @@
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88">
         <v>63800000</v>
       </c>
     </row>
@@ -33924,7 +33804,7 @@
       <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89">
         <v>26300000</v>
       </c>
     </row>
@@ -33932,7 +33812,7 @@
       <c r="B90" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90">
         <v>25700000</v>
       </c>
     </row>
@@ -33940,7 +33820,7 @@
       <c r="B91" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91">
         <v>23300000</v>
       </c>
     </row>
@@ -33948,7 +33828,7 @@
       <c r="A92" t="s">
         <v>357</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92">
         <v>668440000</v>
       </c>
     </row>
@@ -33959,7 +33839,7 @@
       <c r="B93" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93">
         <v>78300000</v>
       </c>
     </row>
@@ -33967,7 +33847,7 @@
       <c r="B94" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94">
         <v>38200000</v>
       </c>
     </row>
@@ -33975,7 +33855,7 @@
       <c r="B95" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95">
         <v>36900000</v>
       </c>
     </row>
@@ -33983,7 +33863,7 @@
       <c r="A96" t="s">
         <v>358</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96">
         <v>153400000</v>
       </c>
     </row>
@@ -33994,7 +33874,7 @@
       <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97">
         <v>161500000</v>
       </c>
     </row>
@@ -34002,7 +33882,7 @@
       <c r="B98" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98">
         <v>29000000</v>
       </c>
     </row>
@@ -34010,7 +33890,7 @@
       <c r="B99" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99">
         <v>22300000</v>
       </c>
     </row>
@@ -34018,7 +33898,7 @@
       <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100">
         <v>22000000</v>
       </c>
     </row>
@@ -34026,7 +33906,7 @@
       <c r="A101" t="s">
         <v>359</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101">
         <v>234800000</v>
       </c>
     </row>
@@ -34037,7 +33917,7 @@
       <c r="B102" t="s">
         <v>21</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102">
         <v>18300000</v>
       </c>
     </row>
@@ -34045,7 +33925,7 @@
       <c r="A103" t="s">
         <v>360</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103">
         <v>18300000</v>
       </c>
     </row>
@@ -34056,7 +33936,7 @@
       <c r="B104" t="s">
         <v>21</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104">
         <v>36600000</v>
       </c>
     </row>
@@ -34064,7 +33944,7 @@
       <c r="B105" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105">
         <v>33700000</v>
       </c>
     </row>
@@ -34072,7 +33952,7 @@
       <c r="B106" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106">
         <v>20900000</v>
       </c>
     </row>
@@ -34080,7 +33960,7 @@
       <c r="B107" t="s">
         <v>164</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107">
         <v>18900000</v>
       </c>
     </row>
@@ -34088,7 +33968,7 @@
       <c r="A108" t="s">
         <v>361</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108">
         <v>110100000</v>
       </c>
     </row>
@@ -34099,7 +33979,7 @@
       <c r="B109" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109">
         <v>58800000</v>
       </c>
     </row>
@@ -34107,7 +33987,7 @@
       <c r="B110" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110">
         <v>46900000</v>
       </c>
     </row>
@@ -34115,7 +33995,7 @@
       <c r="B111" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111">
         <v>17000000</v>
       </c>
     </row>
@@ -34123,7 +34003,7 @@
       <c r="A112" t="s">
         <v>362</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112">
         <v>122700000</v>
       </c>
     </row>
@@ -34131,7 +34011,7 @@
       <c r="A113" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113">
         <v>9304346081</v>
       </c>
     </row>
